--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
